--- a/InputData/hydgn/SoHPCCbRIC/Share of Hydrogen Production Capital Costs by Recipient ISIC Code.xlsx
+++ b/InputData/hydgn/SoHPCCbRIC/Share of Hydrogen Production Capital Costs by Recipient ISIC Code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\US\eps-us\InputData\hydgn\SoHPCCbRIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\hydgn\SoHPCCbRIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1707556-25F8-4B5E-8027-13A108FE3FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E80F06-AEFD-4EF8-B1FC-0F271AC25761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31395" yWindow="1440" windowWidth="25290" windowHeight="13845" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -147,6 +147,9 @@
     <t>biomass gasification</t>
   </si>
   <si>
+    <t>thermochemical water splitting</t>
+  </si>
+  <si>
     <t>Capital Costs</t>
   </si>
   <si>
@@ -484,9 +487,6 @@
   </si>
   <si>
     <t>natural gas reforming with CCS</t>
-  </si>
-  <si>
-    <t>hydrocarbon partial oxidation</t>
   </si>
 </sst>
 </file>
@@ -1856,151 +1856,149 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="65.1796875" customWidth="1"/>
+    <col min="2" max="2" width="65.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="43">
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="42" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="44" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="43">
         <v>2017</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="44" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B14" s="42" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B17" s="44" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" s="43">
         <v>2014</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="42" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B21" s="42" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="45" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2018,19 +2016,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B10:N98"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="99.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="99.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L10" s="48">
         <v>68084000</v>
       </c>
@@ -2038,10 +2036,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L11" s="48"/>
     </row>
-    <row r="12" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L12" s="48">
         <v>49148000</v>
       </c>
@@ -2049,16 +2047,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L13" s="48"/>
     </row>
-    <row r="14" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L14" s="48"/>
     </row>
-    <row r="15" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L15" s="48"/>
     </row>
-    <row r="16" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L16" s="48">
         <v>3658000</v>
       </c>
@@ -2066,10 +2064,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L17" s="48"/>
     </row>
-    <row r="18" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L18" s="48">
         <v>21570000</v>
       </c>
@@ -2077,13 +2075,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L19" s="48"/>
     </row>
-    <row r="20" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L20" s="48"/>
     </row>
-    <row r="21" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L21" s="48">
         <v>28492000</v>
       </c>
@@ -2091,60 +2089,60 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="2:14" ht="22" x14ac:dyDescent="0.65">
+    <row r="33" spans="2:14" ht="22.5" x14ac:dyDescent="0.45">
       <c r="B33" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F33" s="54"/>
       <c r="G33" s="54"/>
       <c r="H33" s="54"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F34" s="54"/>
       <c r="G34" s="54"/>
       <c r="H34" s="54"/>
     </row>
-    <row r="35" spans="2:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C35" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F35" s="54"/>
       <c r="G35" s="54"/>
       <c r="H35" s="54"/>
     </row>
-    <row r="36" spans="2:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" s="5">
         <v>50000</v>
       </c>
       <c r="D38" s="55" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E38" s="56"/>
       <c r="F38" s="56"/>
       <c r="G38" s="56"/>
       <c r="H38" s="57"/>
     </row>
-    <row r="39" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D39" s="58" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E39" s="52"/>
       <c r="F39" s="52"/>
       <c r="G39" s="52"/>
       <c r="H39" s="52"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C40" s="7">
         <v>2012</v>
@@ -2155,9 +2153,9 @@
       <c r="G40" s="60"/>
       <c r="H40" s="61"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C41" s="8">
         <v>2010</v>
@@ -2168,15 +2166,15 @@
       <c r="G41" s="63"/>
       <c r="H41" s="64"/>
     </row>
-    <row r="42" spans="2:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C42" s="9">
         <v>0.94218268901813196</v>
       </c>
       <c r="D42" s="62" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E42" s="63"/>
       <c r="F42" s="63"/>
@@ -2186,41 +2184,41 @@
         <v>0</v>
       </c>
       <c r="N42" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C43" s="10">
         <v>1.100724186648488</v>
       </c>
       <c r="D43" s="51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E43" s="52"/>
       <c r="F43" s="52"/>
       <c r="G43" s="52"/>
       <c r="H43" s="53"/>
       <c r="M43" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N43" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M44" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N44" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
@@ -2232,41 +2230,41 @@
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" ht="53.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" ht="53.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H46" s="17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M46" t="s">
         <v>2</v>
       </c>
       <c r="N46" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C47" s="19">
         <v>47851875</v>
@@ -2293,12 +2291,12 @@
         <v>3</v>
       </c>
       <c r="N47" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C48" s="25"/>
       <c r="D48" s="20">
@@ -2317,12 +2315,12 @@
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C49" s="25">
         <v>9163125</v>
@@ -2349,12 +2347,12 @@
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C50" s="25">
         <v>3054375</v>
@@ -2381,12 +2379,12 @@
         <v>6</v>
       </c>
       <c r="N50" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C51" s="25">
         <v>5090625</v>
@@ -2413,12 +2411,12 @@
         <v>7</v>
       </c>
       <c r="N51" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C52" s="25">
         <v>5090625</v>
@@ -2442,15 +2440,15 @@
         <v>4.4642857142857137E-2</v>
       </c>
       <c r="M52" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N52" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C53" s="25">
         <v>21380625</v>
@@ -2474,15 +2472,15 @@
         <v>0.1875</v>
       </c>
       <c r="M53" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N53" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C54" s="25">
         <v>2036250</v>
@@ -2509,12 +2507,12 @@
         <v>8</v>
       </c>
       <c r="N54" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C55" s="25">
         <v>5090625</v>
@@ -2538,15 +2536,15 @@
         <v>4.4642857142857137E-2</v>
       </c>
       <c r="M55" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N55" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C56" s="25">
         <v>1018125</v>
@@ -2570,15 +2568,15 @@
         <v>8.9285714285714281E-3</v>
       </c>
       <c r="M56" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N56" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C57" s="25">
         <v>2036250</v>
@@ -2602,13 +2600,13 @@
         <v>1.7857142857142856E-2</v>
       </c>
       <c r="M57" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N57" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="30"/>
       <c r="C58" s="31">
         <v>101812500</v>
@@ -2630,32 +2628,32 @@
         <v>0.10714285714285701</v>
       </c>
       <c r="M58" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N58" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C59" s="36"/>
       <c r="M59" t="s">
         <v>9</v>
       </c>
       <c r="N59" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M60" t="s">
         <v>10</v>
       </c>
       <c r="N60" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C61" s="37">
         <v>900</v>
@@ -2664,12 +2662,12 @@
         <v>11</v>
       </c>
       <c r="N61" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C62" s="37">
         <v>54.3</v>
@@ -2678,12 +2676,12 @@
         <v>12</v>
       </c>
       <c r="N62" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C63" s="39">
         <v>113125</v>
@@ -2692,12 +2690,12 @@
         <v>13</v>
       </c>
       <c r="N63" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C64" s="40">
         <v>0.47</v>
@@ -2706,12 +2704,12 @@
         <v>14</v>
       </c>
       <c r="N64" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C65" s="40">
         <v>0.53</v>
@@ -2720,54 +2718,54 @@
         <v>15</v>
       </c>
       <c r="N65" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C66" s="40">
         <v>0.09</v>
       </c>
       <c r="M66" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N66" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C67" s="40">
         <v>0.03</v>
       </c>
       <c r="M67" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N67" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C68" s="40">
         <v>0.05</v>
       </c>
       <c r="M68" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N68" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C69" s="40">
         <v>0.05</v>
@@ -2776,12 +2774,12 @@
         <v>16</v>
       </c>
       <c r="N69" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C70" s="40">
         <v>0.21</v>
@@ -2790,12 +2788,12 @@
         <v>17</v>
       </c>
       <c r="N70" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C71" s="40">
         <v>0.02</v>
@@ -2804,12 +2802,12 @@
         <v>18</v>
       </c>
       <c r="N71" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C72" s="40">
         <v>0.05</v>
@@ -2818,12 +2816,12 @@
         <v>19</v>
       </c>
       <c r="N72" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C73" s="40">
         <v>0.01</v>
@@ -2832,12 +2830,12 @@
         <v>20</v>
       </c>
       <c r="N73" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C74" s="40">
         <v>0.02</v>
@@ -2846,82 +2844,82 @@
         <v>21</v>
       </c>
       <c r="N74" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M75" t="s">
         <v>22</v>
       </c>
       <c r="N75" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M76" t="s">
         <v>23</v>
       </c>
       <c r="N76" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M77" t="s">
         <v>24</v>
       </c>
       <c r="N77" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M78" t="s">
         <v>25</v>
       </c>
       <c r="N78" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M79" t="s">
         <v>26</v>
       </c>
       <c r="N79" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M80" t="s">
         <v>27</v>
       </c>
       <c r="N80" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="81" spans="11:14" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="81" spans="11:14" x14ac:dyDescent="0.25">
       <c r="M81" t="s">
         <v>28</v>
       </c>
       <c r="N81" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="82" spans="11:14" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="82" spans="11:14" x14ac:dyDescent="0.25">
       <c r="M82" t="s">
         <v>29</v>
       </c>
       <c r="N82" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="83" spans="11:14" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="83" spans="11:14" x14ac:dyDescent="0.25">
       <c r="M83" t="s">
         <v>30</v>
       </c>
       <c r="N83" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="86" spans="11:14" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="86" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K86" s="48">
         <v>1088450000</v>
       </c>
@@ -2929,7 +2927,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="11:14" x14ac:dyDescent="0.35">
+    <row r="87" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K87" s="48">
         <v>483000000</v>
       </c>
@@ -2937,13 +2935,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="11:14" x14ac:dyDescent="0.35">
+    <row r="88" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K88" s="48"/>
     </row>
-    <row r="89" spans="11:14" x14ac:dyDescent="0.35">
+    <row r="89" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K89" s="48"/>
     </row>
-    <row r="90" spans="11:14" x14ac:dyDescent="0.35">
+    <row r="90" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K90" s="48">
         <v>87900000</v>
       </c>
@@ -2951,10 +2949,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="11:14" x14ac:dyDescent="0.35">
+    <row r="91" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K91" s="48"/>
     </row>
-    <row r="92" spans="11:14" x14ac:dyDescent="0.35">
+    <row r="92" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K92" s="48">
         <v>250600000</v>
       </c>
@@ -2962,13 +2960,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="11:14" x14ac:dyDescent="0.35">
+    <row r="93" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K93" s="48"/>
     </row>
-    <row r="94" spans="11:14" x14ac:dyDescent="0.35">
+    <row r="94" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K94" s="48"/>
     </row>
-    <row r="95" spans="11:14" x14ac:dyDescent="0.35">
+    <row r="95" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K95" s="48">
         <v>191000000</v>
       </c>
@@ -2976,7 +2974,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="11:11" x14ac:dyDescent="0.35">
+    <row r="98" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K98" s="47">
         <f>SUM(K86:K95)</f>
         <v>2100950000</v>
@@ -3010,30 +3008,30 @@
   </sheetPr>
   <dimension ref="A1:AQ8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AO8" sqref="A8:AO8"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:AQ8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="26" width="10.7265625" customWidth="1"/>
-    <col min="27" max="27" width="13.1796875" customWidth="1"/>
-    <col min="28" max="43" width="10.7265625" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="26" width="10.7109375" customWidth="1"/>
+    <col min="27" max="27" width="13.140625" customWidth="1"/>
+    <col min="28" max="43" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" s="49" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B1" s="50" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="50" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D1" s="50" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E1" s="50" t="s">
         <v>1</v>
@@ -3057,25 +3055,25 @@
         <v>7</v>
       </c>
       <c r="L1" s="50" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M1" s="50" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N1" s="50" t="s">
         <v>8</v>
       </c>
       <c r="O1" s="50" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P1" s="50" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q1" s="50" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="R1" s="50" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="S1" s="50" t="s">
         <v>9</v>
@@ -3099,13 +3097,13 @@
         <v>15</v>
       </c>
       <c r="Z1" s="50" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AA1" s="50" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AB1" s="50" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AC1" s="50" t="s">
         <v>16</v>
@@ -3153,7 +3151,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -3326,7 +3324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -3499,7 +3497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -3672,7 +3670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -3845,20 +3843,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>35</v>
       </c>
       <c r="B6">
-        <f t="shared" ref="B6:V6" si="6">B3</f>
+        <f>B4</f>
         <v>0</v>
       </c>
       <c r="C6">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="C6:AQ6" si="6">C4</f>
         <v>0</v>
       </c>
       <c r="D6">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="D6" si="7">D4</f>
         <v>0</v>
       </c>
       <c r="E6">
@@ -3894,7 +3892,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="M6" si="8">M4</f>
         <v>0</v>
       </c>
       <c r="N6">
@@ -3906,7 +3904,7 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="P6" si="9">P4</f>
         <v>0</v>
       </c>
       <c r="Q6">
@@ -3914,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="R6" si="10">R4</f>
         <v>0</v>
       </c>
       <c r="S6">
@@ -3930,437 +3928,437 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <f>V3</f>
-        <v>0.41966165941316863</v>
+        <f t="shared" si="6"/>
+        <v>0.55991337252195439</v>
       </c>
       <c r="W6">
-        <f t="shared" ref="W6:AQ6" si="7">W3</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA6">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="AA6:AB6" si="11">AA4</f>
         <v>0</v>
       </c>
       <c r="AB6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AC6">
-        <f t="shared" si="7"/>
-        <v>0.41367167392016474</v>
+        <f t="shared" si="6"/>
+        <v>0.34917537304552704</v>
       </c>
       <c r="AD6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AF6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AG6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AH6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AI6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AJ6">
-        <f t="shared" si="7"/>
-        <v>0.16666666666666666</v>
+        <f t="shared" si="6"/>
+        <v>9.0911254432518629E-2</v>
       </c>
       <c r="AK6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AM6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AN6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AO6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AP6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AQ6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B7">
         <f>B2</f>
         <v>0</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:AQ7" si="8">C2</f>
+        <f t="shared" ref="C7:AQ7" si="12">C2</f>
         <v>0</v>
       </c>
       <c r="D7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.20535714285714285</v>
       </c>
       <c r="V7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.66964285714285687</v>
       </c>
       <c r="W7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="X7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Y7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AA7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AB7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AC7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.12499999999999986</v>
       </c>
       <c r="AD7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AF7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AG7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AH7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AI7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AJ7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AK7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AN7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AO7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ7">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.35">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B8">
         <f>B3</f>
         <v>0</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:AQ8" si="9">C3</f>
+        <f t="shared" ref="C8:AQ8" si="13">C3</f>
         <v>0</v>
       </c>
       <c r="D8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.41966165941316863</v>
       </c>
       <c r="W8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AA8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AB8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.41367167392016474</v>
       </c>
       <c r="AD8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AF8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AG8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AH8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AI8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AJ8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="AK8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AL8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AM8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AN8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AO8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AP8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AQ8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
